--- a/data/trans_dic/P02E$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7298365961022968</v>
+        <v>0.7397763687929251</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7968467898457013</v>
+        <v>0.7839811230597832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7755820538051956</v>
+        <v>0.776204949577623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7928841033460085</v>
+        <v>0.7982693773867301</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8364058845725467</v>
+        <v>0.8361406427281014</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7597817274075058</v>
+        <v>0.7582324580847681</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7874381660611709</v>
+        <v>0.7849142517228769</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8345860970274894</v>
+        <v>0.8361976607333287</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7958423199236556</v>
+        <v>0.794960704360771</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8731020472175133</v>
+        <v>0.873787437208197</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9135034819823535</v>
+        <v>0.9125555725821655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9257852263294958</v>
+        <v>0.9230543160481721</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9224720820186341</v>
+        <v>0.9272400223477525</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9408706981374795</v>
+        <v>0.9408268956460125</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.890017515288598</v>
+        <v>0.8876883462661066</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8832144174171197</v>
+        <v>0.8846692636733872</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9129258947096737</v>
+        <v>0.9130567550329806</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8917654322295704</v>
+        <v>0.888916291158765</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7608297672868384</v>
+        <v>0.7458826898381911</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8401221939509499</v>
+        <v>0.8521150459688818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8342132565166541</v>
+        <v>0.8242163691152175</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8774565681242331</v>
+        <v>0.8722508693682162</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8927979419639528</v>
+        <v>0.8926133963532284</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7552767076785349</v>
+        <v>0.760949446672065</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8506294463454264</v>
+        <v>0.8555286734885702</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8930092274558862</v>
+        <v>0.8930197095188912</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8093924097360754</v>
+        <v>0.812023314213431</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9333372534963907</v>
+        <v>0.9312244343953128</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9542485108405467</v>
+        <v>0.9540439214941501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9468745156087445</v>
+        <v>0.9470534893210337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.964078804114228</v>
+        <v>0.9640060503698288</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9617853555123524</v>
+        <v>0.9646045837045242</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8869404038732915</v>
+        <v>0.8853647125242035</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9390097755541729</v>
+        <v>0.9413996588716262</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9520220283944298</v>
+        <v>0.9507105255686279</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8968110449479951</v>
+        <v>0.8977748669003076</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8636163865682966</v>
+        <v>0.8686625862386231</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8391684013956191</v>
+        <v>0.8406803919928404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8873329825723674</v>
+        <v>0.8881092029385741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7740531375991534</v>
+        <v>0.764321416150114</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.821587154537611</v>
+        <v>0.821732163028283</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8928708837609008</v>
+        <v>0.8721915494190531</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8561749521690231</v>
+        <v>0.8545157897805663</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.852115125327202</v>
+        <v>0.8544986721086723</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9050956583086289</v>
+        <v>0.907861011762827</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9612352492158589</v>
+        <v>0.9620224020900005</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9338825846315298</v>
+        <v>0.9304537858535918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9725821505815418</v>
+        <v>0.9725330561833219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9398029391160913</v>
+        <v>0.9382820220134838</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9418214485088817</v>
+        <v>0.944785027914373</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9386774528855318</v>
+        <v>0.9426327151162164</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9265344599564526</v>
+        <v>0.9291037903718332</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.972771930094141</v>
+        <v>0.9719587681960034</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.872608932166873</v>
+        <v>0.8778775571994382</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9082554844934132</v>
+        <v>0.9032892574743173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8953992879557789</v>
+        <v>0.8965385852931169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8510902766447538</v>
+        <v>0.8411712528382447</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8947035478336506</v>
+        <v>0.8947371474660059</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8188680713773573</v>
+        <v>0.8176915522961549</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8771373861276934</v>
+        <v>0.8762345009479906</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9098728913431794</v>
+        <v>0.9100168867778702</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8663392077211658</v>
+        <v>0.8634309982102678</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9499574127737241</v>
+        <v>0.9503064164730005</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9608155220261744</v>
+        <v>0.9569118739258162</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9606316152475831</v>
+        <v>0.960110456538941</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9338187864443709</v>
+        <v>0.9299589074692501</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9496923986270166</v>
+        <v>0.9501432296073867</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8952106518832547</v>
+        <v>0.8965234886286998</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9306905832509361</v>
+        <v>0.9313573167529511</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9475967169220079</v>
+        <v>0.9463302973336127</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9179043002574881</v>
+        <v>0.9166205156643126</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8673396898275368</v>
+        <v>0.8695299165929073</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8910267216966101</v>
+        <v>0.8892837551779827</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8462231384147678</v>
+        <v>0.8450532863329216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9023943453318716</v>
+        <v>0.9000367319752408</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8617280449786369</v>
+        <v>0.8607807483937456</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8544044650337022</v>
+        <v>0.8490454743616598</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9064570503832968</v>
+        <v>0.9116108126785204</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8826167263222078</v>
+        <v>0.8818361472254589</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.862440209935414</v>
+        <v>0.865382995726127</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9843513531196909</v>
+        <v>0.9842246006400889</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9765277390809851</v>
+        <v>0.975868895412412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9470435004800892</v>
+        <v>0.9450959026285747</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9697806483850254</v>
+        <v>0.9690661736453248</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9283892469354447</v>
+        <v>0.9255049780266957</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9296473290759291</v>
+        <v>0.9279152107558798</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9673866166427497</v>
+        <v>0.9652685125852258</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9354014070525649</v>
+        <v>0.9350164216188631</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9249769202384769</v>
+        <v>0.9300958272303834</v>
       </c>
     </row>
     <row r="19">
@@ -1221,28 +1221,28 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.5167022534202184</v>
+        <v>0.4889999995524184</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6239166713582494</v>
+        <v>0.6135390872265976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9132743620261449</v>
+        <v>0.9075651699054048</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9042003485175547</v>
+        <v>0.8978493225528527</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8764252802241781</v>
+        <v>0.8724764304770605</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9112558700584439</v>
+        <v>0.9145531975717905</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9020706468207133</v>
+        <v>0.8973710235257437</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8710463231068856</v>
+        <v>0.8659334444672981</v>
       </c>
     </row>
     <row r="21">
@@ -1257,25 +1257,25 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9520215328268324</v>
+        <v>0.9515943032397519</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9721213715326806</v>
+        <v>0.9692627619432479</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9599257656966159</v>
+        <v>0.9596202191364074</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9541306116314193</v>
+        <v>0.9587273150421133</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9698961393529856</v>
+        <v>0.9685133205249572</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9599226150477386</v>
+        <v>0.9570052825912887</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9480726704563479</v>
+        <v>0.9475546366173281</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8922171572508061</v>
+        <v>0.891862310714942</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8999107322835274</v>
+        <v>0.8979108918822002</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9010252179184567</v>
+        <v>0.9013225183514378</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8555741286562064</v>
+        <v>0.8556376731363832</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8932008527767215</v>
+        <v>0.895048534048551</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9028758444210329</v>
+        <v>0.9046140748266289</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.877105961368265</v>
+        <v>0.8759502453968844</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9329146504749046</v>
+        <v>0.932938405213551</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9336245259266109</v>
+        <v>0.9323366790989166</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9302837033570283</v>
+        <v>0.9301866572092964</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8953749726649324</v>
+        <v>0.8955275592570046</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9228164555973496</v>
+        <v>0.9228335443112075</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.925631785568672</v>
+        <v>0.9264826793641718</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9063255207352264</v>
+        <v>0.9055456531225261</v>
       </c>
     </row>
     <row r="25">
@@ -1615,31 +1615,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>83257</v>
+        <v>84391</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>120192</v>
+        <v>118252</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>75121</v>
+        <v>75182</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>84182</v>
+        <v>84754</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>136916</v>
+        <v>136873</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>108514</v>
+        <v>108292</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>173431</v>
+        <v>172875</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>262503</v>
+        <v>263010</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>190747</v>
+        <v>190536</v>
       </c>
     </row>
     <row r="7">
@@ -1650,31 +1650,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>99600</v>
+        <v>99678</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>137788</v>
+        <v>137645</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>89670</v>
+        <v>89405</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>97941</v>
+        <v>98447</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>154017</v>
+        <v>154010</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>127114</v>
+        <v>126781</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>194525</v>
+        <v>194846</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>287143</v>
+        <v>287185</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>213738</v>
+        <v>213055</v>
       </c>
     </row>
     <row r="8">
@@ -1759,31 +1759,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>64837</v>
+        <v>63563</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>129809</v>
+        <v>131662</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>89393</v>
+        <v>88322</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>125217</v>
+        <v>124474</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>176711</v>
+        <v>176675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>118849</v>
+        <v>119741</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>193878</v>
+        <v>194995</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>314733</v>
+        <v>314737</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>214098</v>
+        <v>214794</v>
       </c>
     </row>
     <row r="11">
@@ -1794,31 +1794,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>79538</v>
+        <v>79358</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>147443</v>
+        <v>147411</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>101466</v>
+        <v>101485</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>137578</v>
+        <v>137568</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>190366</v>
+        <v>190924</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>139567</v>
+        <v>139319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>214022</v>
+        <v>214567</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>335532</v>
+        <v>335069</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>237222</v>
+        <v>237477</v>
       </c>
     </row>
     <row r="12">
@@ -1903,31 +1903,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>104200</v>
+        <v>104808</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>163135</v>
+        <v>163429</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>124250</v>
+        <v>124358</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52155</v>
+        <v>51499</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>89871</v>
+        <v>89887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>48567</v>
+        <v>47442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>160990</v>
+        <v>160678</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>258862</v>
+        <v>259586</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>175970</v>
+        <v>176507</v>
       </c>
     </row>
     <row r="15">
@@ -1938,31 +1938,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>115978</v>
+        <v>116073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>181548</v>
+        <v>180881</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>136187</v>
+        <v>136180</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63323</v>
+        <v>63221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>103023</v>
+        <v>103347</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>54394</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>176503</v>
+        <v>177247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>281470</v>
+        <v>282251</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>189127</v>
+        <v>188969</v>
       </c>
     </row>
     <row r="16">
@@ -2047,31 +2047,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>203937</v>
+        <v>205169</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>310242</v>
+        <v>308546</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>229317</v>
+        <v>229609</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>212203</v>
+        <v>209730</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>356607</v>
+        <v>356621</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>253133</v>
+        <v>252769</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>423693</v>
+        <v>423257</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>673448</v>
+        <v>673554</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>489682</v>
+        <v>488038</v>
       </c>
     </row>
     <row r="19">
@@ -2082,31 +2082,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>222015</v>
+        <v>222096</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>328195</v>
+        <v>326862</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>246024</v>
+        <v>245890</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>232830</v>
+        <v>231868</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>378525</v>
+        <v>378704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>276732</v>
+        <v>277138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>449562</v>
+        <v>449884</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>701369</v>
+        <v>700432</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>518828</v>
+        <v>518102</v>
       </c>
     </row>
     <row r="20">
@@ -2191,31 +2191,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54089</v>
+        <v>54226</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>120551</v>
+        <v>120315</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>115123</v>
+        <v>114964</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>171120</v>
+        <v>170673</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>308258</v>
+        <v>307919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>213159</v>
+        <v>211822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>228419</v>
+        <v>229718</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>435142</v>
+        <v>434758</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>332493</v>
+        <v>333628</v>
       </c>
     </row>
     <row r="23">
@@ -2226,31 +2226,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61386</v>
+        <v>61378</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>132118</v>
+        <v>132029</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>128839</v>
+        <v>128574</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>183899</v>
+        <v>183763</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>332104</v>
+        <v>331073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>231930</v>
+        <v>231498</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>243773</v>
+        <v>243239</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>461166</v>
+        <v>460976</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>356603</v>
+        <v>358576</v>
       </c>
     </row>
     <row r="24">
@@ -2336,28 +2336,28 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>4228</v>
+        <v>4001</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12068</v>
+        <v>11868</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>227885</v>
+        <v>226460</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>259074</v>
+        <v>257254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>170400</v>
+        <v>169632</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>236650</v>
+        <v>237506</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>265846</v>
+        <v>264461</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>186203</v>
+        <v>185110</v>
       </c>
     </row>
     <row r="27">
@@ -2372,25 +2372,25 @@
         <v>8182</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18415</v>
+        <v>18407</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>242569</v>
+        <v>241855</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>275041</v>
+        <v>274953</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>185508</v>
+        <v>186402</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>251878</v>
+        <v>251519</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>282895</v>
+        <v>282035</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>202669</v>
+        <v>202558</v>
       </c>
     </row>
     <row r="28">
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>674101</v>
+        <v>673833</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>904175</v>
+        <v>902166</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1364002</v>
+        <v>1364452</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>947641</v>
+        <v>947711</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1456751</v>
+        <v>1459764</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2255959</v>
+        <v>2260302</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1634175</v>
+        <v>1632021</v>
       </c>
     </row>
     <row r="31">
@@ -2510,31 +2510,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>704850</v>
+        <v>704868</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>938049</v>
+        <v>936755</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1408294</v>
+        <v>1408147</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>991724</v>
+        <v>991893</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1505052</v>
+        <v>1505080</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2312818</v>
+        <v>2314944</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1688615</v>
+        <v>1687162</v>
       </c>
     </row>
     <row r="32">
